--- a/2023/chile_primera-b_2023.xlsx
+++ b/2023/chile_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21/02/2023 00:27</t>
+          <t>21/02/2023 00:28</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.07</v>
+        <v>3.31</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>21/02/2023 00:20</t>
+          <t>21/02/2023 00:28</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.94</v>
+        <v>3.56</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.29</v>
+        <v>4.8</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>21/02/2023 00:20</t>
+          <t>21/02/2023 00:28</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-rangers/QF9ZHuE5/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-recoleta/Ik6RJ1qg/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21/02/2023 00:28</t>
+          <t>21/02/2023 00:27</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.31</v>
+        <v>3.07</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>21/02/2023 00:28</t>
+          <t>21/02/2023 00:20</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.56</v>
+        <v>2.94</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.8</v>
+        <v>3.29</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>21/02/2023 00:28</t>
+          <t>21/02/2023 00:20</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-recoleta/Ik6RJ1qg/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-rangers/QF9ZHuE5/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>27/02/2023 10:12</t>
+          <t>28/02/2023 10:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.46</v>
+        <v>1.87</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>28/02/2023 21:19</t>
+          <t>28/02/2023 21:50</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>3.22</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>27/02/2023 10:12</t>
+          <t>28/02/2023 10:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.81</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>28/02/2023 21:05</t>
+          <t>28/02/2023 21:50</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.64</v>
+        <v>3.69</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>27/02/2023 10:12</t>
+          <t>28/02/2023 10:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.35</v>
+        <v>4.18</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>28/02/2023 21:43</t>
+          <t>28/02/2023 21:50</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-u-de-concepcion/6ZQ4XKDh/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-san-marcos-de-arica/nVcrGJrI/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/02/2023 10:42</t>
+          <t>27/02/2023 10:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.87</v>
+        <v>3.46</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>28/02/2023 21:50</t>
+          <t>28/02/2023 21:19</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.22</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/02/2023 10:42</t>
+          <t>27/02/2023 10:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>28/02/2023 21:50</t>
+          <t>28/02/2023 21:05</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.69</v>
+        <v>2.64</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/02/2023 10:42</t>
+          <t>27/02/2023 10:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.18</v>
+        <v>2.35</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>28/02/2023 21:50</t>
+          <t>28/02/2023 21:43</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-san-marcos-de-arica/nVcrGJrI/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-u-de-concepcion/6ZQ4XKDh/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.51</v>
+        <v>2.17</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>15/03/2023 00:28</t>
+          <t>14/03/2023 23:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>15/03/2023 00:28</t>
+          <t>14/03/2023 23:07</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.67</v>
+        <v>3.15</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>15/03/2023 00:28</t>
+          <t>14/03/2023 23:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-s-wanderers/h4xLPTBq/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-barnechea/QHzTN7td/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14/03/2023 23:58</t>
+          <t>15/03/2023 00:28</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>14/03/2023 23:07</t>
+          <t>15/03/2023 00:28</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.15</v>
+        <v>2.67</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>14/03/2023 23:58</t>
+          <t>15/03/2023 00:28</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-barnechea/QHzTN7td/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-s-wanderers/h4xLPTBq/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>19/03/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
         <v>2.21</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>21/03/2023 00:27</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>19/03/2023 00:42</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>21/03/2023 00:29</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>21/03/2023 00:27</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>19/03/2023 00:42</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>21/03/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>19/03/2023 00:42</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>2.82</v>
+        <v>3.63</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>21/03/2023 00:29</t>
+          <t>21/03/2023 00:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-san-luis/CYdURyaR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-club-deportes-santa-cruz/tlm0MFMl/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,48 +4552,48 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.21</v>
+        <v>2.65</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>21/03/2023 00:27</t>
+          <t>21/03/2023 00:29</t>
         </is>
       </c>
       <c r="N45" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/03/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>21/03/2023 00:29</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>2.99</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>19/03/2023 00:42</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>21/03/2023 00:27</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>19/03/2023 00:42</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>3.63</v>
+        <v>2.82</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>21/03/2023 00:27</t>
+          <t>21/03/2023 00:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-club-deportes-santa-cruz/tlm0MFMl/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-san-luis/CYdURyaR/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.53</v>
+        <v>2.06</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/03/2023 22:57</t>
+          <t>26/03/2023 15:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/03/2023 22:57</t>
+          <t>26/03/2023 21:04</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.49</v>
+        <v>3.87</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/03/2023 22:57</t>
+          <t>26/03/2023 15:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-antofagasta/U9Tfrcq8/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-barnechea/MLNYzFyr/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.06</v>
+        <v>2.53</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/03/2023 15:58</t>
+          <t>26/03/2023 22:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/03/2023 21:04</t>
+          <t>26/03/2023 22:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.38</v>
+        <v>2.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.87</v>
+        <v>3.49</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/03/2023 15:58</t>
+          <t>26/03/2023 22:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-barnechea/MLNYzFyr/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-antofagasta/U9Tfrcq8/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>15/04/2023 23:59</t>
+          <t>15/04/2023 23:58</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.13</v>
+        <v>3.33</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>15/04/2023 23:59</t>
+          <t>15/04/2023 23:58</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.74</v>
+        <v>3.47</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>15/04/2023 23:59</t>
+          <t>15/04/2023 23:58</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-barnechea/p0dtffrK/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-club-deportes-santa-cruz/vNepgEcQ/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>CD Santa Cruz</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
       <c r="J60" t="n">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,48 +5932,48 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.22</v>
+        <v>1.99</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15/04/2023 23:58</t>
+          <t>15/04/2023 23:59</t>
         </is>
       </c>
       <c r="N60" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>14/04/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
         <v>3.33</v>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>15/04/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>14/04/2023 12:13</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>15/04/2023 23:58</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>14/04/2023 12:13</t>
-        </is>
-      </c>
       <c r="T60" t="n">
-        <v>3.47</v>
+        <v>3.74</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>15/04/2023 23:58</t>
+          <t>15/04/2023 23:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-club-deportes-santa-cruz/vNepgEcQ/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-barnechea/p0dtffrK/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.08</v>
+        <v>2.49</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:19</t>
+          <t>16/04/2023 23:57</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16/04/2023 22:05</t>
+          <t>16/04/2023 23:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.26</v>
+        <v>3.05</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:19</t>
+          <t>16/04/2023 23:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-rangers/EFnClY5s/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-deportes-temuco/dvxHmhLm/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:57</t>
+          <t>16/04/2023 23:19</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:54</t>
+          <t>16/04/2023 22:05</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.72</v>
+        <v>3.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:57</t>
+          <t>16/04/2023 23:19</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-deportes-temuco/dvxHmhLm/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-rangers/EFnClY5s/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:59</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,32 +8248,32 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>11/05/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>10/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
           <t>11/05/2023 23:56</t>
         </is>
       </c>
-      <c r="R85" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>10/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T85" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>11/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>11/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
           <t>11/05/2023 23:56</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="O86" t="inlineStr">
+      <c r="R86" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>10/05/2023 00:12</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>11/05/2023 23:51</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>10/05/2023 00:12</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>23/05/2023 02:12</t>
+          <t>23/05/2023 02:21</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2.82</v>
+        <v>3.32</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>23/05/2023 02:00</t>
+          <t>23/05/2023 02:21</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.29</v>
+        <v>2.89</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.89</v>
+        <v>3.45</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>23/05/2023 02:12</t>
+          <t>23/05/2023 02:21</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-san-marcos-de-arica/46Wi6cXq/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-s-morning/KYGjRb99/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>23/05/2023 02:21</t>
+          <t>23/05/2023 02:12</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,32 +9996,32 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.32</v>
+        <v>2.82</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>23/05/2023 02:21</t>
+          <t>23/05/2023 02:00</t>
         </is>
       </c>
       <c r="R104" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>18/05/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
         <v>2.89</v>
       </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>18/05/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>3.45</v>
-      </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>23/05/2023 02:21</t>
+          <t>23/05/2023 02:12</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-s-morning/KYGjRb99/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-san-marcos-de-arica/46Wi6cXq/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,48 +12464,48 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 11:45</t>
         </is>
       </c>
       <c r="N131" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>07/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
         <v>3.16</v>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>08/07/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S131" t="inlineStr">
         <is>
           <t>07/07/2023 09:12</t>
         </is>
       </c>
-      <c r="P131" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>08/07/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R131" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>07/07/2023 09:12</t>
-        </is>
-      </c>
       <c r="T131" t="n">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:26</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-barnechea/Kz8JoQjg/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-u-de-concepcion/CrQQq4L5/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 11:45</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.16</v>
+        <v>3.65</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:26</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:26</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-u-de-concepcion/CrQQq4L5/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-barnechea/Kz8JoQjg/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,63 +12725,63 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>08/07/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
         <v>2</v>
       </c>
-      <c r="J134" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K134" t="inlineStr">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>09/07/2023 18:00</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O134" t="inlineStr">
         <is>
           <t>08/07/2023 06:42</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>09/07/2023 18:29</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O134" t="inlineStr">
+      <c r="P134" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>09/07/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S134" t="inlineStr">
         <is>
           <t>08/07/2023 06:42</t>
         </is>
       </c>
-      <c r="P134" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>09/07/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R134" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>08/07/2023 06:42</t>
-        </is>
-      </c>
       <c r="T134" t="n">
-        <v>3.72</v>
+        <v>3.82</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>09/07/2023 18:29</t>
+          <t>09/07/2023 16:33</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-deportes-temuco/f7FVrOzC/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-cobreloa/MaSrhSDP/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>09/07/2023 18:00</t>
+          <t>09/07/2023 18:29</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>09/07/2023 16:33</t>
+          <t>09/07/2023 18:29</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.82</v>
+        <v>3.72</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>09/07/2023 16:33</t>
+          <t>09/07/2023 18:29</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-cobreloa/MaSrhSDP/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-deportes-temuco/f7FVrOzC/</t>
         </is>
       </c>
     </row>
@@ -13821,19 +13821,19 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>2.14</v>
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-luis/4MtCwlGT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-san-marcos-de-arica/EXmatjWA/</t>
         </is>
       </c>
     </row>
@@ -13913,19 +13913,19 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>2.14</v>
@@ -13936,7 +13936,7 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-san-marcos-de-arica/EXmatjWA/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-luis/4MtCwlGT/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.43</v>
+        <v>3.18</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.73</v>
+        <v>3.11</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:22</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>5.35</v>
+        <v>2.42</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>8.35</v>
+        <v>2.24</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.18</v>
+        <v>1.43</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.11</v>
+        <v>3.73</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.36</v>
+        <v>4.26</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:22</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.42</v>
+        <v>5.35</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.24</v>
+        <v>8.35</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>27/08/2023 18:21</t>
+          <t>27/08/2023 18:26</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.4</v>
+        <v>3.78</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.35</v>
+        <v>3.66</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>27/08/2023 18:23</t>
+          <t>27/08/2023 18:26</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>4.47</v>
+        <v>5.34</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>4.13</v>
+        <v>4.73</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>27/08/2023 18:21</t>
+          <t>27/08/2023 18:26</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-d-puerto-montt/jZ89Dfc0/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-barnechea/ClcIBYRC/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>D. Puerto Montt</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
         <v>2</v>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Barnechea</t>
-        </is>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
       <c r="J185" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>27/08/2023 18:26</t>
+          <t>27/08/2023 18:21</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.66</v>
+        <v>3.35</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>27/08/2023 18:26</t>
+          <t>27/08/2023 18:23</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>5.34</v>
+        <v>4.47</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>4.73</v>
+        <v>4.13</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>27/08/2023 18:26</t>
+          <t>27/08/2023 18:21</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-barnechea/ClcIBYRC/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-d-puerto-montt/jZ89Dfc0/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>3</v>
       </c>
       <c r="J186" t="n">
-        <v>2.71</v>
+        <v>2.26</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,48 +17524,48 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
+          <t>27/08/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>26/08/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
           <t>27/08/2023 20:55</t>
         </is>
       </c>
-      <c r="N186" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O186" t="inlineStr">
+      <c r="R186" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S186" t="inlineStr">
         <is>
           <t>26/08/2023 04:13</t>
         </is>
       </c>
-      <c r="P186" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>26/08/2023 04:13</t>
-        </is>
-      </c>
       <c r="T186" t="n">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>27/08/2023 20:55</t>
+          <t>27/08/2023 20:59</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-deportes-iquique/Ma45Ezrf/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-san-luis/UP7DCEC6/</t>
         </is>
       </c>
     </row>
@@ -17593,22 +17593,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>3</v>
       </c>
       <c r="J187" t="n">
-        <v>2.26</v>
+        <v>2.71</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>27/08/2023 20:59</t>
+          <t>27/08/2023 20:55</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.99</v>
+        <v>2.4</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>27/08/2023 20:59</t>
+          <t>27/08/2023 20:55</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-san-luis/UP7DCEC6/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-deportes-iquique/Ma45Ezrf/</t>
         </is>
       </c>
     </row>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -19993,63 +19993,63 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.31</v>
+        <v>2.07</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>23/09/2023 05:42</t>
+          <t>24/09/2023 14:13</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>24/09/2023 17:23</t>
+          <t>24/09/2023 17:27</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>23/09/2023 05:42</t>
+          <t>24/09/2023 14:13</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>24/09/2023 17:23</t>
+          <t>24/09/2023 17:27</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>23/09/2023 05:42</t>
+          <t>24/09/2023 14:13</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.39</v>
+        <v>4.47</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>24/09/2023 17:23</t>
+          <t>24/09/2023 17:27</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-san-marcos-de-arica/A1CAJMPj/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-felipe/KWg1tpX3/</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -20085,63 +20085,63 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>24/09/2023 14:13</t>
+          <t>23/09/2023 05:42</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.75</v>
+        <v>2.11</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>24/09/2023 17:27</t>
+          <t>24/09/2023 17:23</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>24/09/2023 14:13</t>
+          <t>23/09/2023 05:42</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.83</v>
+        <v>3.47</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>24/09/2023 17:27</t>
+          <t>24/09/2023 17:23</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>24/09/2023 14:13</t>
+          <t>23/09/2023 05:42</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>4.47</v>
+        <v>3.39</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>24/09/2023 17:27</t>
+          <t>24/09/2023 17:23</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-felipe/KWg1tpX3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-san-marcos-de-arica/A1CAJMPj/</t>
         </is>
       </c>
     </row>
@@ -21154,6 +21154,374 @@
       <c r="V225" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-club-deportes-santa-cruz/OveWg313/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45207.9375</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>S. Morning</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:17</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:17</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:17</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-s-morning/I1WRrwg2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45207.9375</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>U. De Concepcion</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-san-felipe/MZxJpaOk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45208.72916666666</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>D. Puerto Montt</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-barnechea/W4K97MV2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45208.72916666666</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-rangers/p8OD6to9/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-b_2023.xlsx
+++ b/2023/chile_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V229"/>
+  <dimension ref="A1:V233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.06</v>
+        <v>2.53</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/03/2023 15:58</t>
+          <t>26/03/2023 22:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/03/2023 21:04</t>
+          <t>26/03/2023 22:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.38</v>
+        <v>2.66</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.87</v>
+        <v>3.49</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/03/2023 15:58</t>
+          <t>26/03/2023 22:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-barnechea/MLNYzFyr/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-antofagasta/U9Tfrcq8/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.53</v>
+        <v>2.06</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/03/2023 22:57</t>
+          <t>26/03/2023 15:58</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/03/2023 22:57</t>
+          <t>26/03/2023 21:04</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.49</v>
+        <v>3.87</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/03/2023 22:57</t>
+          <t>26/03/2023 15:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-antofagasta/U9Tfrcq8/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-barnechea/MLNYzFyr/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>CD Santa Cruz</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,48 +5840,48 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.22</v>
+        <v>1.99</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>15/04/2023 23:58</t>
+          <t>15/04/2023 23:59</t>
         </is>
       </c>
       <c r="N59" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>14/04/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>3.33</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>15/04/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S59" t="inlineStr">
         <is>
           <t>14/04/2023 12:13</t>
         </is>
       </c>
-      <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>15/04/2023 23:58</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>14/04/2023 12:13</t>
-        </is>
-      </c>
       <c r="T59" t="n">
-        <v>3.47</v>
+        <v>3.74</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>15/04/2023 23:58</t>
+          <t>15/04/2023 23:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-club-deportes-santa-cruz/vNepgEcQ/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-barnechea/p0dtffrK/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15/04/2023 23:59</t>
+          <t>15/04/2023 23:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.13</v>
+        <v>3.33</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>15/04/2023 23:59</t>
+          <t>15/04/2023 23:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.74</v>
+        <v>3.47</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>15/04/2023 23:59</t>
+          <t>15/04/2023 23:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-barnechea/p0dtffrK/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-club-deportes-santa-cruz/vNepgEcQ/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:51</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.73</v>
+        <v>4.45</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.2</v>
+        <v>3.93</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-barnechea/WhCEhv3p/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>11/05/2023 23:59</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>11/05/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>10/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>11/05/2023 23:56</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>10/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>11/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-barnechea/WhCEhv3p/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>08/07/2023 11:45</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.16</v>
+        <v>3.65</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:26</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:26</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-u-de-concepcion/CrQQq4L5/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-barnechea/Kz8JoQjg/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,48 +12648,48 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 11:45</t>
         </is>
       </c>
       <c r="N133" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>07/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
         <v>3.16</v>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>08/07/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S133" t="inlineStr">
         <is>
           <t>07/07/2023 09:12</t>
         </is>
       </c>
-      <c r="P133" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>08/07/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>07/07/2023 09:12</t>
-        </is>
-      </c>
       <c r="T133" t="n">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:26</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-barnechea/Kz8JoQjg/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-u-de-concepcion/CrQQq4L5/</t>
         </is>
       </c>
     </row>
@@ -13821,19 +13821,19 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
         <v>2.14</v>
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-san-marcos-de-arica/EXmatjWA/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-luis/4MtCwlGT/</t>
         </is>
       </c>
     </row>
@@ -13913,19 +13913,19 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
         <v>2.14</v>
@@ -13936,7 +13936,7 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-luis/4MtCwlGT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-san-marcos-de-arica/EXmatjWA/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>3.18</v>
+        <v>1.43</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.11</v>
+        <v>3.73</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.36</v>
+        <v>4.26</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:22</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.42</v>
+        <v>5.35</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.24</v>
+        <v>8.35</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.43</v>
+        <v>3.18</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.73</v>
+        <v>3.11</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:22</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.35</v>
+        <v>2.42</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>8.35</v>
+        <v>2.24</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
         <v>2</v>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
       <c r="J172" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:25</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.82</v>
+        <v>3.41</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:25</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.07</v>
+        <v>3.62</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>4.32</v>
+        <v>3.41</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>12/08/2023 17:17</t>
+          <t>12/08/2023 18:25</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-rangers/MwTU1cbl/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-deportes-temuco/42IZ0HDf/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
         <v>1</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Deportes Temuco</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>2</v>
-      </c>
       <c r="J173" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>12/08/2023 18:25</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.29</v>
+        <v>3.65</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.41</v>
+        <v>3.82</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>12/08/2023 18:25</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.62</v>
+        <v>4.07</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.41</v>
+        <v>4.32</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>12/08/2023 18:25</t>
+          <t>12/08/2023 17:17</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-deportes-temuco/42IZ0HDf/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-rangers/MwTU1cbl/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G175" t="n">
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
         <v>1</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>San Luis</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
       <c r="J175" t="n">
-        <v>1.72</v>
+        <v>2.29</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.79</v>
+        <v>2.33</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>13/08/2023 18:29</t>
+          <t>13/08/2023 16:32</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.57</v>
+        <v>3.05</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.79</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>13/08/2023 18:29</t>
+          <t>13/08/2023 16:32</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>4.13</v>
+        <v>2.98</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.23</v>
+        <v>3.25</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>13/08/2023 18:29</t>
+          <t>13/08/2023 16:32</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-san-luis/C4we8aLK/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-recoleta/jexa7JzR/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>13/08/2023 16:32</t>
+          <t>13/08/2023 18:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.05</v>
+        <v>3.57</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.12</v>
+        <v>3.79</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>13/08/2023 16:32</t>
+          <t>13/08/2023 18:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.98</v>
+        <v>4.13</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.25</v>
+        <v>4.23</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>13/08/2023 16:32</t>
+          <t>13/08/2023 18:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-recoleta/jexa7JzR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-san-luis/C4we8aLK/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>3</v>
       </c>
       <c r="J186" t="n">
-        <v>2.26</v>
+        <v>2.71</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>27/08/2023 20:59</t>
+          <t>27/08/2023 20:55</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.99</v>
+        <v>2.4</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>27/08/2023 20:59</t>
+          <t>27/08/2023 20:55</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-san-luis/UP7DCEC6/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-deportes-iquique/Ma45Ezrf/</t>
         </is>
       </c>
     </row>
@@ -17593,22 +17593,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>3</v>
       </c>
       <c r="J187" t="n">
-        <v>2.71</v>
+        <v>2.26</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,48 +17616,48 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
+          <t>27/08/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>26/08/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
           <t>27/08/2023 20:55</t>
         </is>
       </c>
-      <c r="N187" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O187" t="inlineStr">
+      <c r="R187" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S187" t="inlineStr">
         <is>
           <t>26/08/2023 04:13</t>
         </is>
       </c>
-      <c r="P187" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R187" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>26/08/2023 04:13</t>
-        </is>
-      </c>
       <c r="T187" t="n">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>27/08/2023 20:55</t>
+          <t>27/08/2023 20:59</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-deportes-iquique/Ma45Ezrf/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-san-luis/UP7DCEC6/</t>
         </is>
       </c>
     </row>
@@ -21522,6 +21522,374 @@
       <c r="V229" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-rangers/p8OD6to9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45208.9375</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>CD Santa Cruz</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-deportes-iquique/Q3imjL0S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45208.9375</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-luis/vBXNqJwd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45208.9375</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>San Marcos de Arica</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>4</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>3</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-antofagasta/rqvFou9q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45208.9375</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>S. Wanderers</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:21</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:21</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>09/10/2023 22:21</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-deportes-temuco/SWDI500F/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-b_2023.xlsx
+++ b/2023/chile_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V233"/>
+  <dimension ref="A1:V236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:57</t>
+          <t>16/04/2023 23:19</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:54</t>
+          <t>16/04/2023 22:05</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.72</v>
+        <v>3.29</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:57</t>
+          <t>16/04/2023 23:19</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-deportes-temuco/dvxHmhLm/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-rangers/EFnClY5s/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.08</v>
+        <v>2.49</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:19</t>
+          <t>16/04/2023 23:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16/04/2023 22:05</t>
+          <t>16/04/2023 23:54</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.26</v>
+        <v>3.05</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:19</t>
+          <t>16/04/2023 23:57</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-rangers/EFnClY5s/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-deportes-temuco/dvxHmhLm/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.57</v>
+        <v>3.24</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>6.47</v>
+        <v>3.31</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-recoleta/C8Vsb0uN/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.28</v>
+        <v>2.97</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.34</v>
+        <v>3.06</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.45</v>
+        <v>2.73</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.93</v>
+        <v>3.2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:59</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-barnechea/WhCEhv3p/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>11/05/2023 23:51</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.73</v>
+        <v>4.45</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.2</v>
+        <v>3.93</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-barnechea/WhCEhv3p/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.16</v>
+        <v>1.52</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:59</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.26</v>
+        <v>3.87</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.24</v>
+        <v>4.57</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.31</v>
+        <v>6.47</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:59</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-recoleta/C8Vsb0uN/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:50</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.65</v>
+        <v>3.31</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:50</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:50</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-barnechea/Kz8JoQjg/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-la-serena/O8EAmnMt/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:50</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.31</v>
+        <v>3.65</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:50</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.75</v>
+        <v>2.82</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:50</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-la-serena/O8EAmnMt/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-barnechea/Kz8JoQjg/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.43</v>
+        <v>3.18</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.73</v>
+        <v>3.11</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:22</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>5.35</v>
+        <v>2.42</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>8.35</v>
+        <v>2.24</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.18</v>
+        <v>1.43</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.11</v>
+        <v>3.73</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.36</v>
+        <v>4.26</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:22</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.42</v>
+        <v>5.35</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.24</v>
+        <v>8.35</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
         <v>1</v>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Deportes Temuco</t>
-        </is>
-      </c>
-      <c r="I172" t="n">
-        <v>2</v>
-      </c>
       <c r="J172" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>12/08/2023 18:25</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.29</v>
+        <v>3.65</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.41</v>
+        <v>3.82</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>12/08/2023 18:25</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.62</v>
+        <v>4.07</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.41</v>
+        <v>4.32</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>12/08/2023 18:25</t>
+          <t>12/08/2023 17:17</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-deportes-temuco/42IZ0HDf/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-rangers/MwTU1cbl/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
         <v>2</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
       <c r="J173" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:25</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.82</v>
+        <v>3.41</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:25</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>4.07</v>
+        <v>3.62</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>4.32</v>
+        <v>3.41</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>12/08/2023 17:17</t>
+          <t>12/08/2023 18:25</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-rangers/MwTU1cbl/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-deportes-temuco/42IZ0HDf/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>3</v>
       </c>
       <c r="J186" t="n">
-        <v>2.71</v>
+        <v>2.26</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,48 +17524,48 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
+          <t>27/08/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>26/08/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
           <t>27/08/2023 20:55</t>
         </is>
       </c>
-      <c r="N186" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O186" t="inlineStr">
+      <c r="R186" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S186" t="inlineStr">
         <is>
           <t>26/08/2023 04:13</t>
         </is>
       </c>
-      <c r="P186" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>26/08/2023 04:13</t>
-        </is>
-      </c>
       <c r="T186" t="n">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>27/08/2023 20:55</t>
+          <t>27/08/2023 20:59</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-deportes-iquique/Ma45Ezrf/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-san-luis/UP7DCEC6/</t>
         </is>
       </c>
     </row>
@@ -17593,22 +17593,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>3</v>
       </c>
       <c r="J187" t="n">
-        <v>2.26</v>
+        <v>2.71</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>27/08/2023 20:59</t>
+          <t>27/08/2023 20:55</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.99</v>
+        <v>2.4</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>27/08/2023 20:59</t>
+          <t>27/08/2023 20:55</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-san-luis/UP7DCEC6/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-deportes-iquique/Ma45Ezrf/</t>
         </is>
       </c>
     </row>
@@ -21890,6 +21890,282 @@
       <c r="V233" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-deportes-temuco/SWDI500F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45213.91666666666</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>3</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>San Marcos de Arica</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>3</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-san-marcos-de-arica/6NCM4KFL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45213.91666666666</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>D. Puerto Montt</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-d-puerto-montt/OMLk48t8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45213.91666666666</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>S. Morning</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:56</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-recoleta/COi1cx8e/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-b_2023.xlsx
+++ b/2023/chile_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V236"/>
+  <dimension ref="A1:V241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>2.01</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12/02/2023 18:30</t>
+          <t>12/02/2023 10:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/02/2023 21:57</t>
+          <t>13/02/2023 21:53</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.89</v>
+        <v>2.99</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12/02/2023 18:30</t>
+          <t>12/02/2023 10:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/02/2023 21:48</t>
+          <t>13/02/2023 21:53</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.47</v>
+        <v>3.5</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>12/02/2023 18:30</t>
+          <t>12/02/2023 10:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.95</v>
+        <v>3.94</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/02/2023 21:57</t>
+          <t>13/02/2023 21:53</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-la-serena/rXiq7Oam/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-club-deportes-santa-cruz/YLpd4Mq6/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.01</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12/02/2023 10:12</t>
+          <t>12/02/2023 18:30</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/02/2023 21:53</t>
+          <t>13/02/2023 21:57</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12/02/2023 10:12</t>
+          <t>12/02/2023 18:30</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.26</v>
+        <v>2.87</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/02/2023 21:53</t>
+          <t>13/02/2023 21:48</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.5</v>
+        <v>2.47</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>12/02/2023 10:12</t>
+          <t>12/02/2023 18:30</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.94</v>
+        <v>2.95</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/02/2023 21:53</t>
+          <t>13/02/2023 21:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-club-deportes-santa-cruz/YLpd4Mq6/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-la-serena/rXiq7Oam/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21/02/2023 00:28</t>
+          <t>21/02/2023 00:27</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.31</v>
+        <v>3.07</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>21/02/2023 00:28</t>
+          <t>21/02/2023 00:20</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.56</v>
+        <v>2.94</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.8</v>
+        <v>3.29</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>21/02/2023 00:28</t>
+          <t>21/02/2023 00:20</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-recoleta/Ik6RJ1qg/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-rangers/QF9ZHuE5/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21/02/2023 00:27</t>
+          <t>21/02/2023 00:28</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.07</v>
+        <v>3.31</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>21/02/2023 00:20</t>
+          <t>21/02/2023 00:28</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.94</v>
+        <v>3.56</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.29</v>
+        <v>4.8</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>21/02/2023 00:20</t>
+          <t>21/02/2023 00:28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-rangers/QF9ZHuE5/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-recoleta/Ik6RJ1qg/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.72</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>26/02/2023 10:12</t>
+          <t>26/02/2023 21:56</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>27/02/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>26/02/2023 21:56</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>27/02/2023 21:56</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>26/02/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>27/02/2023 21:56</t>
-        </is>
-      </c>
       <c r="R19" t="n">
-        <v>4.14</v>
+        <v>2.19</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>26/02/2023 10:12</t>
+          <t>26/02/2023 21:56</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.69</v>
+        <v>2.86</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>27/02/2023 21:56</t>
+          <t>27/02/2023 21:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-barnechea/CCR0Y0bn/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-la-serena/YodjEcDU/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,38 +2237,38 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>1.72</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>26/02/2023 21:56</t>
+          <t>26/02/2023 10:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.55</v>
+        <v>1.57</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>27/02/2023 21:59</t>
+          <t>27/02/2023 21:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>26/02/2023 21:56</t>
+          <t>26/02/2023 10:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,24 +2276,24 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.19</v>
+        <v>4.14</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>26/02/2023 21:56</t>
+          <t>26/02/2023 10:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.86</v>
+        <v>5.69</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>27/02/2023 21:59</t>
+          <t>27/02/2023 21:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-la-serena/YodjEcDU/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-barnechea/CCR0Y0bn/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>28/02/2023 10:42</t>
+          <t>27/02/2023 10:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.87</v>
+        <v>3.46</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>28/02/2023 21:50</t>
+          <t>28/02/2023 21:19</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.22</v>
+        <v>2.86</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>28/02/2023 10:42</t>
+          <t>27/02/2023 10:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>28/02/2023 21:50</t>
+          <t>28/02/2023 21:05</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.69</v>
+        <v>2.64</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>28/02/2023 10:42</t>
+          <t>27/02/2023 10:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4.18</v>
+        <v>2.35</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>28/02/2023 21:50</t>
+          <t>28/02/2023 21:43</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-san-marcos-de-arica/nVcrGJrI/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-u-de-concepcion/6ZQ4XKDh/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>27/02/2023 10:12</t>
+          <t>28/02/2023 10:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.46</v>
+        <v>1.87</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>28/02/2023 21:19</t>
+          <t>28/02/2023 21:50</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.22</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>27/02/2023 10:12</t>
+          <t>28/02/2023 10:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.81</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>28/02/2023 21:05</t>
+          <t>28/02/2023 21:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.64</v>
+        <v>3.69</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>27/02/2023 10:12</t>
+          <t>28/02/2023 10:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.35</v>
+        <v>4.18</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>28/02/2023 21:43</t>
+          <t>28/02/2023 21:50</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-u-de-concepcion/6ZQ4XKDh/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-san-marcos-de-arica/nVcrGJrI/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>03/03/2023 22:09</t>
+          <t>03/03/2023 09:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>04/03/2023 14:44</t>
+          <t>04/03/2023 15:57</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>03/03/2023 22:09</t>
+          <t>03/03/2023 09:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>04/03/2023 14:44</t>
+          <t>04/03/2023 15:57</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>03/03/2023 22:09</t>
+          <t>03/03/2023 09:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.96</v>
+        <v>3.57</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>04/03/2023 14:44</t>
+          <t>04/03/2023 15:57</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-san-felipe/WYalCAsp/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-recoleta/EckgBUdj/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>03/03/2023 09:42</t>
+          <t>03/03/2023 22:09</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>04/03/2023 15:57</t>
+          <t>04/03/2023 14:44</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>03/03/2023 09:42</t>
+          <t>03/03/2023 22:09</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>04/03/2023 15:57</t>
+          <t>04/03/2023 14:44</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>03/03/2023 09:42</t>
+          <t>03/03/2023 22:09</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.57</v>
+        <v>3.96</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>04/03/2023 15:57</t>
+          <t>04/03/2023 14:44</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-recoleta/EckgBUdj/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-san-felipe/WYalCAsp/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>14/03/2023 23:58</t>
+          <t>15/03/2023 00:28</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>14/03/2023 23:07</t>
+          <t>15/03/2023 00:28</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.15</v>
+        <v>2.67</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>14/03/2023 23:58</t>
+          <t>15/03/2023 00:28</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-barnechea/QHzTN7td/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-s-wanderers/h4xLPTBq/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.51</v>
+        <v>2.17</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>15/03/2023 00:28</t>
+          <t>14/03/2023 23:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>15/03/2023 00:28</t>
+          <t>14/03/2023 23:07</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.67</v>
+        <v>3.15</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>15/03/2023 00:28</t>
+          <t>14/03/2023 23:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-s-wanderers/h4xLPTBq/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-barnechea/QHzTN7td/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>20/03/2023 21:58</t>
+          <t>20/03/2023 21:50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>20/03/2023 21:58</t>
+          <t>20/03/2023 21:50</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.02</v>
+        <v>3.42</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20/03/2023 21:58</t>
+          <t>20/03/2023 21:50</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-deportes-iquique/Mq4HUwF8/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-rangers/Kvn4LZye/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>20/03/2023 21:50</t>
+          <t>20/03/2023 21:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>20/03/2023 21:50</t>
+          <t>20/03/2023 21:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.42</v>
+        <v>3.02</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20/03/2023 21:50</t>
+          <t>20/03/2023 21:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-rangers/Kvn4LZye/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-deportes-iquique/Mq4HUwF8/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.21</v>
+        <v>2.65</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>21/03/2023 00:27</t>
+          <t>21/03/2023 00:29</t>
         </is>
       </c>
       <c r="N44" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>19/03/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>21/03/2023 00:29</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>2.99</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>19/03/2023 00:42</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>21/03/2023 00:27</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>19/03/2023 00:42</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>3.63</v>
+        <v>2.82</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>21/03/2023 00:27</t>
+          <t>21/03/2023 00:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-club-deportes-santa-cruz/tlm0MFMl/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-san-luis/CYdURyaR/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19/03/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
         <v>2.21</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>21/03/2023 00:27</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>19/03/2023 00:42</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>21/03/2023 00:29</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>21/03/2023 00:27</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>19/03/2023 00:42</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>21/03/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>19/03/2023 00:42</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>2.82</v>
+        <v>3.63</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>21/03/2023 00:29</t>
+          <t>21/03/2023 00:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-san-luis/CYdURyaR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-club-deportes-santa-cruz/tlm0MFMl/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/03/2023 01:19</t>
+          <t>27/03/2023 01:22</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/03/2023 01:19</t>
+          <t>27/03/2023 01:22</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.22</v>
+        <v>4.17</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/03/2023 01:19</t>
+          <t>27/03/2023 01:22</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-s-wanderers/QyN3tyEK/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-s-morning/4SL7ueTQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/03/2023 01:22</t>
+          <t>27/03/2023 01:19</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/03/2023 01:22</t>
+          <t>27/03/2023 01:19</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.35</v>
+        <v>3.67</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.17</v>
+        <v>5.22</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/03/2023 01:22</t>
+          <t>27/03/2023 01:19</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-s-morning/4SL7ueTQ/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-s-wanderers/QyN3tyEK/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/03/2023 19:48</t>
+          <t>27/03/2023 22:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/03/2023 22:33</t>
+          <t>27/03/2023 22:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.5</v>
+        <v>4.13</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/03/2023 22:33</t>
+          <t>27/03/2023 22:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/rangers-san-marcos-de-arica/G6uDJD67/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-u-de-concepcion/0CMxzZjl/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/03/2023 22:58</t>
+          <t>27/03/2023 19:48</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/03/2023 22:58</t>
+          <t>27/03/2023 22:33</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.13</v>
+        <v>3.5</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.81</v>
+        <v>3.75</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/03/2023 22:58</t>
+          <t>27/03/2023 22:33</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-u-de-concepcion/0CMxzZjl/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/rangers-san-marcos-de-arica/G6uDJD67/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.08</v>
+        <v>2.49</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:19</t>
+          <t>16/04/2023 23:57</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16/04/2023 22:05</t>
+          <t>16/04/2023 23:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>15/04/2023 12:12</t>
+          <t>14/04/2023 15:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.26</v>
+        <v>3.05</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16/04/2023 23:19</t>
+          <t>16/04/2023 23:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-rangers/EFnClY5s/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-deportes-temuco/dvxHmhLm/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:57</t>
+          <t>16/04/2023 23:19</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:54</t>
+          <t>16/04/2023 22:05</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.72</v>
+        <v>3.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>14/04/2023 15:13</t>
+          <t>15/04/2023 12:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>16/04/2023 23:57</t>
+          <t>16/04/2023 23:19</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-deportes-temuco/dvxHmhLm/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-rangers/EFnClY5s/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>23/04/2023 01:42</t>
+          <t>20/04/2023 09:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>23/04/2023 18:15</t>
+          <t>23/04/2023 18:28</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.51</v>
+        <v>3.2</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>23/04/2023 01:42</t>
+          <t>20/04/2023 09:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.38</v>
+        <v>3.55</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>23/04/2023 18:15</t>
+          <t>23/04/2023 18:29</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.47</v>
+        <v>3.39</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>23/04/2023 01:42</t>
+          <t>20/04/2023 09:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>23/04/2023 18:15</t>
+          <t>23/04/2023 18:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-marcos-de-arica/zVzLnCzf/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-iquique-s-morning/Ukqmjosn/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>23/04/2023 18:29</t>
+          <t>23/04/2023 18:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.39</v>
+        <v>3.23</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-iquique-s-morning/Ukqmjosn/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-cobreloa/44uPoWk0/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>20/04/2023 09:13</t>
+          <t>23/04/2023 01:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>23/04/2023 18:28</t>
+          <t>23/04/2023 18:15</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2.94</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>20/04/2023 09:13</t>
+          <t>23/04/2023 01:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.84</v>
+        <v>3.38</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>23/04/2023 18:28</t>
+          <t>23/04/2023 18:15</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.23</v>
+        <v>4.47</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>20/04/2023 09:13</t>
+          <t>23/04/2023 01:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.36</v>
+        <v>4.45</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>23/04/2023 18:28</t>
+          <t>23/04/2023 18:15</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-cobreloa/44uPoWk0/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-marcos-de-arica/zVzLnCzf/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>2</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Deportes Iquique</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,48 +8140,48 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>11/05/2023 23:52</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/05/2023 23:52</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>11/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>10/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>11/05/2023 23:56</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>10/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>11/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-barnechea/WhCEhv3p/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>U. De Concepcion</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,48 +8232,48 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
+          <t>11/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>10/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
           <t>11/05/2023 23:56</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="O85" t="inlineStr">
+      <c r="R85" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S85" t="inlineStr">
         <is>
           <t>10/05/2023 00:12</t>
         </is>
       </c>
-      <c r="P85" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>11/05/2023 23:51</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>10/05/2023 00:12</t>
-        </is>
-      </c>
       <c r="T85" t="n">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>11/05/2023 23:56</t>
+          <t>11/05/2023 23:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-deportes-iquique/rTwR1rtb/</t>
         </is>
       </c>
     </row>
@@ -8301,19 +8301,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>1.74</v>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.34</v>
+        <v>3.87</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.93</v>
+        <v>6.47</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11/05/2023 23:59</t>
+          <t>11/05/2023 23:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-barnechea/WhCEhv3p/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-recoleta/C8Vsb0uN/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>U. De Concepcion</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>3</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
       <c r="J87" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.87</v>
+        <v>3.06</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:51</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.57</v>
+        <v>2.73</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>6.47</v>
+        <v>3.2</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>11/05/2023 23:52</t>
+          <t>11/05/2023 23:56</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-recoleta/C8Vsb0uN/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/u-de-concepcion-antofagasta/MJxV02e4/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>S. Wanderers</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>16/05/2023 21:19</t>
+          <t>16/05/2023 21:20</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.16</v>
+        <v>3.53</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.23</v>
+        <v>3.91</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>16/05/2023 21:19</t>
+          <t>16/05/2023 21:20</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.55</v>
+        <v>5.24</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>16/05/2023 21:19</t>
+          <t>16/05/2023 21:20</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-recoleta/b5m9ELP3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-s-wanderers/Gtb4F1Ac/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>S. Wanderers</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>16/05/2023 21:20</t>
+          <t>16/05/2023 21:19</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.16</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>3.23</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>16/05/2023 21:20</t>
+          <t>16/05/2023 21:19</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.24</v>
+        <v>3.55</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>16/05/2023 21:20</t>
+          <t>16/05/2023 21:19</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-s-wanderers/Gtb4F1Ac/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/barnechea-recoleta/b5m9ELP3/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.39</v>
+        <v>2.18</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.87</v>
+        <v>2.06</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>17/05/2023 02:21</t>
+          <t>17/05/2023 02:29</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.66</v>
+        <v>3.42</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>17/05/2023 02:24</t>
+          <t>17/05/2023 02:29</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.88</v>
+        <v>3.42</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>17/05/2023 02:24</t>
+          <t>17/05/2023 02:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-cobreloa/AqBIibIj/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-iquique-la-serena/xja0Gsei/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.06</v>
+        <v>2.87</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>17/05/2023 02:29</t>
+          <t>17/05/2023 02:21</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.42</v>
+        <v>2.66</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>17/05/2023 02:29</t>
+          <t>17/05/2023 02:24</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.42</v>
+        <v>2.88</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>17/05/2023 02:29</t>
+          <t>17/05/2023 02:24</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-iquique-la-serena/xja0Gsei/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-cobreloa/AqBIibIj/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>09/07/2023 18:00</t>
+          <t>09/07/2023 18:29</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>09/07/2023 16:33</t>
+          <t>09/07/2023 18:29</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.82</v>
+        <v>3.72</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>09/07/2023 16:33</t>
+          <t>09/07/2023 18:29</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-cobreloa/MaSrhSDP/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-deportes-temuco/f7FVrOzC/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,63 +12817,63 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>08/07/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
         <v>2</v>
       </c>
-      <c r="J135" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K135" t="inlineStr">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>09/07/2023 18:00</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O135" t="inlineStr">
         <is>
           <t>08/07/2023 06:42</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>09/07/2023 18:29</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O135" t="inlineStr">
+      <c r="P135" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>09/07/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S135" t="inlineStr">
         <is>
           <t>08/07/2023 06:42</t>
         </is>
       </c>
-      <c r="P135" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>09/07/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R135" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>08/07/2023 06:42</t>
-        </is>
-      </c>
       <c r="T135" t="n">
-        <v>3.72</v>
+        <v>3.82</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>09/07/2023 18:29</t>
+          <t>09/07/2023 16:33</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/recoleta-deportes-temuco/f7FVrOzC/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-cobreloa/MaSrhSDP/</t>
         </is>
       </c>
     </row>
@@ -13821,19 +13821,19 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>2.14</v>
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-luis/4MtCwlGT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-san-marcos-de-arica/EXmatjWA/</t>
         </is>
       </c>
     </row>
@@ -13913,19 +13913,19 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>2.14</v>
@@ -13936,7 +13936,7 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-felipe-san-marcos-de-arica/EXmatjWA/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-san-luis/4MtCwlGT/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>3.18</v>
+        <v>1.43</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.11</v>
+        <v>3.73</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.36</v>
+        <v>4.26</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:22</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.42</v>
+        <v>5.35</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.24</v>
+        <v>8.35</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>23/07/2023 18:25</t>
+          <t>23/07/2023 18:26</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.43</v>
+        <v>3.18</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.73</v>
+        <v>3.11</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:22</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.35</v>
+        <v>2.42</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>8.35</v>
+        <v>2.24</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>23/07/2023 18:26</t>
+          <t>23/07/2023 18:25</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-d-puerto-montt/G0AUeVVc/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-antofagasta/8fm3uAoH/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>D. Puerto Montt</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
         <v>2</v>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Barnechea</t>
-        </is>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
       <c r="J184" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>27/08/2023 18:26</t>
+          <t>27/08/2023 18:21</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.66</v>
+        <v>3.35</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>27/08/2023 18:26</t>
+          <t>27/08/2023 18:23</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>5.34</v>
+        <v>4.47</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>4.73</v>
+        <v>4.13</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>27/08/2023 18:26</t>
+          <t>27/08/2023 18:21</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-barnechea/ClcIBYRC/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-d-puerto-montt/jZ89Dfc0/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>27/08/2023 18:21</t>
+          <t>27/08/2023 18:26</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.4</v>
+        <v>3.78</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.35</v>
+        <v>3.66</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>27/08/2023 18:23</t>
+          <t>27/08/2023 18:26</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>4.47</v>
+        <v>5.34</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>4.13</v>
+        <v>4.73</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>27/08/2023 18:21</t>
+          <t>27/08/2023 18:26</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/la-serena-d-puerto-montt/jZ89Dfc0/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-barnechea/ClcIBYRC/</t>
         </is>
       </c>
     </row>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>D. Puerto Montt</t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -19993,63 +19993,63 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>24/09/2023 14:13</t>
+          <t>23/09/2023 05:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.75</v>
+        <v>2.11</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>24/09/2023 17:27</t>
+          <t>24/09/2023 17:23</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>24/09/2023 14:13</t>
+          <t>23/09/2023 05:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.83</v>
+        <v>3.47</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>24/09/2023 17:27</t>
+          <t>24/09/2023 17:23</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>24/09/2023 14:13</t>
+          <t>23/09/2023 05:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>4.47</v>
+        <v>3.39</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>24/09/2023 17:27</t>
+          <t>24/09/2023 17:23</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-felipe/KWg1tpX3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-san-marcos-de-arica/A1CAJMPj/</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>D. Puerto Montt</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -20085,63 +20085,63 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>2.31</v>
+        <v>2.07</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>23/09/2023 05:42</t>
+          <t>24/09/2023 14:13</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>24/09/2023 17:23</t>
+          <t>24/09/2023 17:27</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>23/09/2023 05:42</t>
+          <t>24/09/2023 14:13</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>24/09/2023 17:23</t>
+          <t>24/09/2023 17:27</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>23/09/2023 05:42</t>
+          <t>24/09/2023 14:13</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>3.39</v>
+        <v>4.47</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>24/09/2023 17:23</t>
+          <t>24/09/2023 17:27</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/d-puerto-montt-san-marcos-de-arica/A1CAJMPj/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-felipe/KWg1tpX3/</t>
         </is>
       </c>
     </row>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -21557,14 +21557,14 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>2.39</v>
+        <v>1.9</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>2.51</v>
+        <v>1.93</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>09/10/2023 22:29</t>
+          <t>09/10/2023 22:21</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.38</v>
+        <v>3.28</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>09/10/2023 22:29</t>
+          <t>09/10/2023 22:21</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.75</v>
+        <v>4.29</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>09/10/2023 22:29</t>
+          <t>09/10/2023 22:21</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-deportes-iquique/Q3imjL0S/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-deportes-temuco/SWDI500F/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J231" t="n">
-        <v>1.88</v>
+        <v>2.79</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>09/10/2023 22:26</t>
+          <t>09/10/2023 22:28</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.91</v>
+        <v>3.6</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>09/10/2023 22:26</t>
+          <t>09/10/2023 22:28</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>3.62</v>
+        <v>2.28</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>5.43</v>
+        <v>2.31</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>09/10/2023 22:26</t>
+          <t>09/10/2023 22:28</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-luis/vBXNqJwd/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-antofagasta/rqvFou9q/</t>
         </is>
       </c>
     </row>
@@ -21733,22 +21733,22 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J232" t="n">
-        <v>2.79</v>
+        <v>2.39</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>2.88</v>
+        <v>2.51</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>09/10/2023 22:28</t>
+          <t>09/10/2023 22:29</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>09/10/2023 22:28</t>
+          <t>09/10/2023 22:29</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>2.31</v>
+        <v>2.75</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>09/10/2023 22:28</t>
+          <t>09/10/2023 22:29</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/san-marcos-de-arica-antofagasta/rqvFou9q/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/club-deportes-santa-cruz-deportes-iquique/Q3imjL0S/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,14 +21833,14 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -21848,15 +21848,15 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>09/10/2023 22:21</t>
+          <t>09/10/2023 22:26</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -21864,15 +21864,15 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.28</v>
+        <v>3.91</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>09/10/2023 22:21</t>
+          <t>09/10/2023 22:26</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
@@ -21880,16 +21880,16 @@
         </is>
       </c>
       <c r="T233" t="n">
-        <v>4.29</v>
+        <v>5.43</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>09/10/2023 22:21</t>
+          <t>09/10/2023 22:26</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-b/s-wanderers-deportes-temuco/SWDI500F/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-b/cobreloa-san-luis/vBXNqJwd/</t>
         </is>
       </c>
     </row>
@@ -22166,6 +22166,466 @@
       <c r="V236" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-b/s-morning-recoleta/COi1cx8e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45214.72916666666</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>2</v>
+      </c>
+      <c r="J237" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/rangers-cobreloa/EmCQ3vVR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45214.72916666666</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:23</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/antofagasta-la-serena/Gdbhabwq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45214.72916666666</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>3</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>S. Wanderers</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:24</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-iquique-s-wanderers/bLmcbIhk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45214.72916666666</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>2</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>CD Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/deportes-temuco-club-deportes-santa-cruz/6oi5ddN1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45214.72916666666</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>2</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>U. De Concepcion</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>3</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T241" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-b/san-luis-u-de-concepcion/pxj9eGx8/</t>
         </is>
       </c>
     </row>
